--- a/data/Orcus - Traps.xlsx
+++ b/data/Orcus - Traps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23D4677-1DB7-42B9-A32F-7C3BBD17481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE111C2-AA2D-43B1-B91D-40AE178045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Orcus - Traps" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Orcus - Traps'!$A$1:$S$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Orcus - Traps'!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="226">
   <si>
     <t>Name</t>
   </si>
@@ -56,36 +56,21 @@
     <t>Countermeasures</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
     <t>Initiative</t>
   </si>
   <si>
-    <t>Range 1</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
     <t>Attack</t>
   </si>
   <si>
-    <t>Hit</t>
-  </si>
-  <si>
-    <t>Miss</t>
-  </si>
-  <si>
     <t>Special</t>
   </si>
   <si>
     <t>Whistling Staircase</t>
   </si>
   <si>
-    <t>Alarm</t>
-  </si>
-  <si>
     <t>The trapped stairs make a terrible racket, alerting those nearby.</t>
   </si>
   <si>
@@ -122,9 +107,6 @@
     <t>1d10+3 damage.</t>
   </si>
   <si>
-    <t>Concealled Pit Trap</t>
-  </si>
-  <si>
     <t>Scythe Trap</t>
   </si>
   <si>
@@ -149,9 +131,6 @@
     <t>The creature in the zombie’s square.</t>
   </si>
   <si>
-    <t>Fusilade of Javelins Trap</t>
-  </si>
-  <si>
     <t>Shooter</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
   </si>
   <si>
     <t>Screaming Sarcophagus</t>
-  </si>
-  <si>
-    <t>Elite Alarm</t>
   </si>
   <si>
     <t>Plume of Flame</t>
@@ -362,42 +338,6 @@
     <t>The creature beneath the patch of acid slime.</t>
   </si>
   <si>
-    <t>+4 vs AC</t>
-  </si>
-  <si>
-    <t>+4 vs Reflex</t>
-  </si>
-  <si>
-    <t>+8 vs AC</t>
-  </si>
-  <si>
-    <t>+6 vs Reflex</t>
-  </si>
-  <si>
-    <t>+5 vs AC</t>
-  </si>
-  <si>
-    <t>+7 vs AC</t>
-  </si>
-  <si>
-    <t>+6 vs AC</t>
-  </si>
-  <si>
-    <t>+8 vs Reflex</t>
-  </si>
-  <si>
-    <t>+8 vs Fortitude</t>
-  </si>
-  <si>
-    <t>+10 vs Will</t>
-  </si>
-  <si>
-    <t>+11 vs Reflex</t>
-  </si>
-  <si>
-    <t>+13 vs Reflex</t>
-  </si>
-  <si>
     <t>An adjacent character can disable the whistling stairs with a DC 18 Sleight of Hand check.
 A DC 12 Dungeoneering check grants the party a +2 bonus to Sleight of Hand checks to delay or disable the trap.</t>
   </si>
@@ -407,9 +347,6 @@
   <si>
     <t>An adjacent character can disable the trap with a DC 18 Sleight of Hand check.
 If the trap is triggered, an adjacent character can throw himself in front of the trap to prevent the torch from being flung into the air with a successful DC 12 Acrobatics or Athletics check. However, if the character is successful, they suffer 1 point of fire damage.</t>
-  </si>
-  <si>
-    <t>+4 vs Fortitude</t>
   </si>
   <si>
     <t>The creature that placed a limb inside the maw.</t>
@@ -555,9 +492,6 @@
   </si>
   <si>
     <t>DC 14: The character notices the controls and the spigot.</t>
-  </si>
-  <si>
-    <t>+6 vs Fortitude</t>
   </si>
   <si>
     <t>A character can attack the spigot (AC 16, other 13; hp 34).
@@ -739,12 +673,93 @@
     <t xml:space="preserve">1d8+2 damage, and the target is grappled. The trap makes a secondary attack against the target.  
 *Secondary Attack:* +10 vs Fortitude,  the target is injected with shadowstuff toxin (see Afflictions for details). </t>
   </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Elite Warning</t>
+  </si>
+  <si>
+    <t>Attack - Tags</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Necrotic</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Attack - Range</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Attack - Type</t>
+  </si>
+  <si>
+    <t>Attack - Attack Bonus</t>
+  </si>
+  <si>
+    <t>Reflex</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Attack - Name</t>
+  </si>
+  <si>
+    <t>Attack - Defense</t>
+  </si>
+  <si>
+    <t>Attack - Hit</t>
+  </si>
+  <si>
+    <t>Attack - Miss</t>
+  </si>
+  <si>
+    <t>Attack - Effect</t>
+  </si>
+  <si>
+    <t>Fusillade of Javelins Trap</t>
+  </si>
+  <si>
+    <t>Concealed Pit Trap</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +890,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1221,13 +1242,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1583,13 +1605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1599,24 +1621,24 @@
     <col min="3" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="100.33203125" style="1" customWidth="1"/>
     <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="21.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="15.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="15" width="21.109375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="19" width="15.88671875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1625,10 +1647,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1637,139 +1659,187 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1">
-        <v>50</v>
+        <v>225</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>173</v>
+        <v>225</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>159</v>
+        <v>225</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>26</v>
+        <v>225</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="1">
         <v>25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>118</v>
+        <v>202</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>158</v>
+        <v>39</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="2">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="F4" s="1">
         <v>25</v>
@@ -1778,42 +1848,48 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1">
         <v>25</v>
@@ -1822,215 +1898,242 @@
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>156</v>
+      <c r="S6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>74</v>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="R8" s="2">
+        <v>4</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="F9" s="1">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>171</v>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>190</v>
+        <v>14</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R9" s="2">
+        <v>8</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="F10" s="1">
         <v>31</v>
@@ -2039,86 +2142,104 @@
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R10" s="4">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="F11" s="1">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="4">
+        <v>6</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1">
         <v>63</v>
@@ -2127,86 +2248,101 @@
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="4">
+        <v>7</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>81</v>
+      <c r="H13" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="4">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1">
         <v>125</v>
@@ -2214,43 +2350,52 @@
       <c r="G14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>81</v>
+      <c r="H14" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="4">
+        <v>8</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>125</v>
@@ -2258,407 +2403,494 @@
       <c r="G15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>177</v>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="4">
+        <v>8</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="P16" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R16" s="4">
+        <v>8</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="F17" s="1">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>165</v>
+        <v>9</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>163</v>
+        <v>39</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R17" s="4">
+        <v>6</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>139</v>
+      <c r="H18" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>154</v>
+        <v>100</v>
+      </c>
+      <c r="R18" s="4">
+        <v>6</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F19" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>202</v>
+        <v>42</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" s="4">
+        <v>8</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="F20" s="1">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>83</v>
+      <c r="H20" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>111</v>
+        <v>207</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R20" s="4">
+        <v>8</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="1">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R21" s="4">
+        <v>8</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>600</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="4">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1">
-        <v>600</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="1">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="1">
-        <v>100</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>152</v>
+        <v>100</v>
+      </c>
+      <c r="R23" s="4">
+        <v>11</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C24" s="1">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1">
         <v>700</v>
@@ -2667,177 +2899,225 @@
         <v>4</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R24" s="4">
+        <v>11</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="C25" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>219</v>
+        <v>127</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>155</v>
+        <v>100</v>
+      </c>
+      <c r="R25" s="4">
+        <v>11</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="F26" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>161</v>
+        <v>14</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26" s="4">
+        <v>12</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>141</v>
+      <c r="H27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" s="4">
+        <v>13</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="F28" s="1">
         <v>500</v>
@@ -2845,31 +3125,93 @@
       <c r="G28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>86</v>
+      <c r="H28" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>162</v>
+      <c r="R28" s="4">
+        <v>13</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1">
+        <v>500</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S28" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S28">
-      <sortCondition ref="C1:C28"/>
+  <autoFilter ref="A1:W29" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W29">
+      <sortCondition ref="C1:C29"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S28">
-    <sortCondition ref="I2:I28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W29">
+    <sortCondition ref="C3:C29"/>
+    <sortCondition ref="F3:F29"/>
+    <sortCondition ref="A3:A29"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Orcus - Traps.xlsx
+++ b/data/Orcus - Traps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE111C2-AA2D-43B1-B91D-40AE178045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C29D5A-55BF-4360-8CB4-F8D16C383B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Orcus - Traps.xlsx
+++ b/data/Orcus - Traps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C29D5A-55BF-4360-8CB4-F8D16C383B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846C0F8-D3F1-4092-9F98-24D2B51D7E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,16 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Orcus - Traps'!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -624,9 +614,6 @@
     <t xml:space="preserve">A statue of a grimacing face, mouth wide open, is attached around the knob of a locked door. It bites down on anyone who fails to pick the lock. </t>
   </si>
   <si>
-    <t xml:space="preserve">A patch of green slime runs along the ceiling above several squares. </t>
-  </si>
-  <si>
     <t xml:space="preserve">A pit trap of one or more squares in area is hidden beneath a fragile surface layer, like a lattice of branches heaped with straw. </t>
   </si>
   <si>
@@ -753,6 +740,10 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>A patch of green slime runs along the ceiling above several squares. 
+&lt;figure&gt;&lt;img src="pics\DnD_Green_slime.png" alt="Green Slime by LadyofHats" style="zoom: 100%;" /&gt;&lt;figcaption&gt;Green Slime by LadyofHats&lt;/figcaption&gt;&lt;/figure&gt;</t>
   </si>
 </sst>
 </file>
@@ -1242,14 +1233,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1608,1595 +1597,1591 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="100.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="15" width="21.109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="19" width="15.88671875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
+    <col min="9" max="9" width="100.33203125" customWidth="1"/>
+    <col min="12" max="15" width="21.109375" customWidth="1"/>
+    <col min="18" max="19" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>225</v>
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>224</v>
+      </c>
+      <c r="R2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T2" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" t="s">
+        <v>224</v>
+      </c>
+      <c r="V2" t="s">
+        <v>224</v>
+      </c>
+      <c r="W2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="N3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>150</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>4</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="S3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>4</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="S4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>106</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>4</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="S6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>150</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>4</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="S7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>50</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="N8" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>105</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="S8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9">
         <v>31</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>150</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>8</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="S9" t="s">
+        <v>214</v>
+      </c>
+      <c r="T9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10">
         <v>31</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>150</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="1">
         <v>5</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T10" s="1" t="s">
+      <c r="S10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11">
         <v>63</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="1">
         <v>6</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T11" s="1" t="s">
+      <c r="S11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T11" t="s">
         <v>139</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
         <v>114</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>63</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>103</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="1">
         <v>7</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="S12" t="s">
+        <v>214</v>
+      </c>
+      <c r="T12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>63</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="N13" t="s">
+        <v>202</v>
+      </c>
+      <c r="O13" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="1">
         <v>4</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T13" s="1" t="s">
+      <c r="S13" t="s">
+        <v>214</v>
+      </c>
+      <c r="T13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>125</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="O14" t="s">
+        <v>210</v>
+      </c>
+      <c r="P14" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" t="s">
         <v>100</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="1">
         <v>8</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="S14" t="s">
+        <v>214</v>
+      </c>
+      <c r="T14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>125</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P15" s="1" t="s">
+      <c r="O15" t="s">
+        <v>209</v>
+      </c>
+      <c r="P15" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>102</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="1">
         <v>8</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="S15" t="s">
+        <v>214</v>
+      </c>
+      <c r="T15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>125</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="O16" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>101</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="1">
         <v>8</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T16" s="1" t="s">
+      <c r="S16" t="s">
+        <v>214</v>
+      </c>
+      <c r="T16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17">
         <v>38</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="O17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P17" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R17" s="4">
+      <c r="Q17" t="s">
+        <v>187</v>
+      </c>
+      <c r="R17" s="1">
         <v>6</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="S17" t="s">
+        <v>214</v>
+      </c>
+      <c r="T17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>150</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="N18" t="s">
+        <v>202</v>
+      </c>
+      <c r="O18" t="s">
+        <v>210</v>
+      </c>
+      <c r="P18" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>100</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="1">
         <v>6</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>100</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="1" t="s">
+      <c r="O19" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="1">
         <v>8</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T19" s="1" t="s">
+      <c r="S19" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" t="s">
         <v>152</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20">
         <v>200</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="J20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>209</v>
+      </c>
+      <c r="P20" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>179</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="1">
         <v>8</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="T20" s="1" t="s">
+      <c r="S20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>6</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21">
         <v>63</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>107</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" t="s">
         <v>150</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="1">
         <v>8</v>
       </c>
-      <c r="S21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="S21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T21" t="s">
         <v>132</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22">
         <v>600</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>127</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>210</v>
+      </c>
+      <c r="P22" t="s">
         <v>129</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="1">
         <v>10</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T22" s="3" t="s">
+      <c r="S22" t="s">
+        <v>216</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>8</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>100</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" t="s">
+        <v>195</v>
+      </c>
+      <c r="I23" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P23" s="1" t="s">
+      <c r="O23" t="s">
+        <v>210</v>
+      </c>
+      <c r="P23" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" t="s">
         <v>100</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="1">
         <v>11</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T23" s="1" t="s">
+      <c r="S23" t="s">
+        <v>213</v>
+      </c>
+      <c r="T23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>700</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>171</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>172</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>210</v>
+      </c>
+      <c r="P24" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" t="s">
         <v>100</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="1">
         <v>11</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T24" s="1" t="s">
+      <c r="S24" t="s">
+        <v>213</v>
+      </c>
+      <c r="T24" t="s">
         <v>51</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>700</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>127</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P25" s="1" t="s">
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>210</v>
+      </c>
+      <c r="P25" t="s">
         <v>99</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" t="s">
         <v>100</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="1">
         <v>11</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T25" s="1" t="s">
+      <c r="S25" t="s">
+        <v>213</v>
+      </c>
+      <c r="T25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26">
         <v>200</v>
       </c>
-      <c r="F26" s="1">
-        <v>200</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26" s="1">
+        <v>12</v>
+      </c>
+      <c r="S26" t="s">
+        <v>214</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R26" s="4">
-        <v>12</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>250</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>125</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P27" s="1" t="s">
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>209</v>
+      </c>
+      <c r="P27" t="s">
         <v>39</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>94</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="1">
         <v>13</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T27" s="3" t="s">
+      <c r="S27" t="s">
+        <v>213</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28">
         <v>500</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P28" s="1" t="s">
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" t="s">
+        <v>210</v>
+      </c>
+      <c r="P28" t="s">
         <v>42</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" t="s">
         <v>100</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="1">
         <v>13</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T28" s="1" t="s">
+      <c r="S28" t="s">
+        <v>213</v>
+      </c>
+      <c r="T28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29">
         <v>10</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>500</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" t="s">
         <v>9</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" t="s">
         <v>59</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" t="s">
         <v>141</v>
       </c>
     </row>
